--- a/medicine/Œil et vue/Aniridie/Aniridie.xlsx
+++ b/medicine/Œil et vue/Aniridie/Aniridie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’aniridie est un ensemble de malformations congénitales comprenant l’absence totale d’iris. On observe parfois des aniridies avec persistance de minuscules collerettes très partielles. L’aniridie peut parfois être confondue avec le port de lentilles cercle de couleur sombre.
 </t>
@@ -511,9 +523,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est due à une mutation sur le gène PAX6[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est due à une mutation sur le gène PAX6.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On diagnostique l’aniridie au cours des premiers mois de la vie.
 Elle s’accompagne fréquemment d’une microcéphalie, d’une hypotonie, d’un retard mental.
@@ -575,7 +591,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’incidence de l’aniridie est de 1/40 000.
 </t>
@@ -606,10 +624,12 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'existe pas de traitement curatif. 
-La thérapie génique permet de faire régresser la maladie sur un modèle animal d'aniridie[2].
+La thérapie génique permet de faire régresser la maladie sur un modèle animal d'aniridie.
 </t>
         </is>
       </c>
